--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="112">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,205 +49,217 @@
     <t>poor</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
     <t>water</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>pool</t>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>un</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
     <t>broken</t>
   </si>
   <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
     <t>di</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>difficult</t>
+    <t>short</t>
   </si>
   <si>
     <t>tried</t>
   </si>
   <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>fell</t>
+    <t>pay</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
     <t>bit</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>pay</t>
+    <t>money</t>
+  </si>
+  <si>
+    <t>minutes</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>worked</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>could</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>money</t>
+    <t>used</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>could</t>
+    <t>fit</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>used</t>
+    <t>need</t>
   </si>
   <si>
     <t>look</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>back</t>
   </si>
   <si>
-    <t>better</t>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>box</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>made</t>
   </si>
   <si>
     <t>even</t>
   </si>
   <si>
-    <t>made</t>
+    <t>toy</t>
   </si>
   <si>
     <t>one</t>
@@ -256,7 +268,7 @@
     <t>get</t>
   </si>
   <si>
-    <t>toy</t>
+    <t>time</t>
   </si>
   <si>
     <t>negative</t>
@@ -268,18 +280,15 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
@@ -298,40 +307,46 @@
     <t>loves</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>fun</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>christmas</t>
+    <t>game</t>
+  </si>
+  <si>
+    <t>playing</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>playing</t>
-  </si>
-  <si>
-    <t>game</t>
+    <t>play</t>
   </si>
   <si>
     <t>positive</t>
@@ -692,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -700,10 +715,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -761,13 +776,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -779,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K3">
-        <v>0.8214285714285714</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -803,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -811,13 +826,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7727272727272727</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -829,10 +844,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K4">
         <v>0.8</v>
@@ -861,13 +876,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7605633802816901</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="C5">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -879,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K5">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L5">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M5">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -903,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -911,37 +926,37 @@
         <v>11</v>
       </c>
       <c r="B6">
+        <v>0.7688172043010753</v>
+      </c>
+      <c r="C6">
+        <v>143</v>
+      </c>
+      <c r="D6">
+        <v>143</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>43</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6">
         <v>0.75</v>
       </c>
-      <c r="C6">
-        <v>48</v>
-      </c>
-      <c r="D6">
-        <v>48</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>16</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6">
-        <v>0.7407407407407407</v>
-      </c>
       <c r="L6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -953,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -961,13 +976,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7473118279569892</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C7">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -979,19 +994,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K7">
-        <v>0.7096774193548387</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="L7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1003,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1011,13 +1026,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7378640776699029</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C8">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1029,19 +1044,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K8">
-        <v>0.7083333333333334</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="L8">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1053,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1061,49 +1076,49 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6904761904761905</v>
+        <v>0.734375</v>
       </c>
       <c r="C9">
+        <v>47</v>
+      </c>
+      <c r="D9">
+        <v>47</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>17</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9">
+        <v>0.546875</v>
+      </c>
+      <c r="L9">
+        <v>35</v>
+      </c>
+      <c r="M9">
+        <v>35</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>29</v>
-      </c>
-      <c r="D9">
-        <v>29</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K9">
-        <v>0.5660377358490566</v>
-      </c>
-      <c r="L9">
-        <v>30</v>
-      </c>
-      <c r="M9">
-        <v>30</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1111,13 +1126,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6621621621621622</v>
+        <v>0.7281553398058253</v>
       </c>
       <c r="C10">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="D10">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1129,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K10">
-        <v>0.5625</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="L10">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M10">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1153,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1161,13 +1176,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6578947368421053</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1179,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K11">
-        <v>0.4782608695652174</v>
+        <v>0.3754098360655738</v>
       </c>
       <c r="L11">
-        <v>33</v>
+        <v>458</v>
       </c>
       <c r="M11">
-        <v>33</v>
+        <v>458</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1203,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>36</v>
+        <v>762</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1211,13 +1226,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.625</v>
+        <v>0.6891891891891891</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1229,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K12">
-        <v>0.3688524590163935</v>
+        <v>0.3285509325681492</v>
       </c>
       <c r="L12">
-        <v>450</v>
+        <v>229</v>
       </c>
       <c r="M12">
-        <v>450</v>
+        <v>229</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1253,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>770</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1261,13 +1276,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6206896551724138</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1279,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K13">
-        <v>0.3443328550932568</v>
+        <v>0.2925311203319502</v>
       </c>
       <c r="L13">
-        <v>240</v>
+        <v>141</v>
       </c>
       <c r="M13">
-        <v>240</v>
+        <v>141</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1303,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>457</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1311,13 +1326,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6</v>
+        <v>0.6386554621848739</v>
       </c>
       <c r="C14">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="D14">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1329,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K14">
-        <v>0.3049792531120332</v>
+        <v>0.2830188679245283</v>
       </c>
       <c r="L14">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="M14">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1353,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>335</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1361,13 +1376,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5630252100840336</v>
+        <v>0.6</v>
       </c>
       <c r="C15">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1379,19 +1394,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K15">
-        <v>0.2583333333333334</v>
+        <v>0.275</v>
       </c>
       <c r="L15">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M15">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1403,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1411,13 +1426,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5555555555555556</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C16">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1429,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K16">
         <v>0.2228915662650602</v>
@@ -1461,13 +1476,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5555555555555556</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1479,19 +1494,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K17">
-        <v>0.201058201058201</v>
+        <v>0.2018348623853211</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="M17">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1503,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>151</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1511,13 +1526,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5526315789473685</v>
+        <v>0.5159420289855072</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>178</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>178</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1529,19 +1544,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K18">
-        <v>0.1926605504587156</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="L18">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1553,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>264</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1561,7 +1576,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5428571428571428</v>
+        <v>0.5</v>
       </c>
       <c r="C19">
         <v>19</v>
@@ -1579,19 +1594,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K19">
-        <v>0.1484375</v>
+        <v>0.140625</v>
       </c>
       <c r="L19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1603,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1611,13 +1626,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5185185185185185</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C20">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D20">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1629,19 +1644,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K20">
-        <v>0.1290322580645161</v>
+        <v>0.1398601398601399</v>
       </c>
       <c r="L20">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1653,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>162</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1661,13 +1676,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4888888888888889</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1679,31 +1694,31 @@
         <v>0</v>
       </c>
       <c r="H21">
+        <v>19</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K21">
+        <v>0.125</v>
+      </c>
+      <c r="L21">
         <v>23</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K21">
-        <v>0.1218229623137599</v>
-      </c>
-      <c r="L21">
-        <v>139</v>
-      </c>
       <c r="M21">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>1002</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1711,13 +1726,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4840579710144928</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C22">
-        <v>167</v>
+        <v>28</v>
       </c>
       <c r="D22">
-        <v>167</v>
+        <v>28</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1729,19 +1744,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K22">
-        <v>0.1118881118881119</v>
+        <v>0.1124497991967871</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1753,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>127</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1761,13 +1776,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4578313253012048</v>
+        <v>0.4251968503937008</v>
       </c>
       <c r="C23">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D23">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1779,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K23">
-        <v>0.108433734939759</v>
+        <v>0.1095530236634531</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1803,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>222</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1811,13 +1826,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.453125</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C24">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D24">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1832,16 +1847,16 @@
         <v>35</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K24">
-        <v>0.0584958217270195</v>
+        <v>0.06035042180402336</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="M24">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1853,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>338</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1861,13 +1876,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4409448818897638</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="C25">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1879,31 +1894,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K25">
-        <v>0.04953560371517028</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="L25">
         <v>16</v>
       </c>
       <c r="M25">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1911,13 +1926,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4285714285714285</v>
+        <v>0.3960396039603961</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1929,19 +1944,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K26">
-        <v>0.045425048669695</v>
+        <v>0.04735376044568245</v>
       </c>
       <c r="L26">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="M26">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1953,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>1471</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1961,13 +1976,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4210526315789473</v>
+        <v>0.3828125</v>
       </c>
       <c r="C27">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D27">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1979,7 +1994,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>55</v>
+        <v>79</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K27">
+        <v>0.04</v>
+      </c>
+      <c r="L27">
+        <v>30</v>
+      </c>
+      <c r="M27">
+        <v>32</v>
+      </c>
+      <c r="N27">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>720</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1987,13 +2026,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3968253968253968</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="C28">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2005,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2013,13 +2052,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3671875</v>
+        <v>0.3744075829383886</v>
       </c>
       <c r="C29">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D29">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2031,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>81</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2039,13 +2078,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3465346534653465</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="C30">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="D30">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2057,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>132</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2065,13 +2104,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3146067415730337</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="C31">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D31">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2083,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2091,13 +2130,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3114754098360656</v>
+        <v>0.3614457831325301</v>
       </c>
       <c r="C32">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D32">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2109,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2117,13 +2156,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3103448275862069</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2135,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2143,13 +2182,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3090909090909091</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2169,13 +2208,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3076923076923077</v>
+        <v>0.328125</v>
       </c>
       <c r="C35">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D35">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2187,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>81</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2195,13 +2234,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3033175355450237</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C36">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D36">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2213,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>147</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2221,13 +2260,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2962962962962963</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2239,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2247,13 +2286,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.288659793814433</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="C38">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="D38">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2265,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>138</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2273,13 +2312,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2857142857142857</v>
+        <v>0.264957264957265</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D39">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2291,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>40</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2299,13 +2338,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2666666666666667</v>
+        <v>0.2577319587628866</v>
       </c>
       <c r="C40">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D40">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2317,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>44</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2325,13 +2364,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2653061224489796</v>
+        <v>0.2551020408163265</v>
       </c>
       <c r="C41">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D41">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2343,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2377,13 +2416,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2463768115942029</v>
+        <v>0.2341772151898734</v>
       </c>
       <c r="C43">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="D43">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2395,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>52</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2403,13 +2442,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2380952380952381</v>
+        <v>0.2297297297297297</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D44">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2421,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2429,13 +2468,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.235</v>
+        <v>0.22</v>
       </c>
       <c r="C45">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D45">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2447,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2455,13 +2494,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.21513353115727</v>
+        <v>0.217948717948718</v>
       </c>
       <c r="C46">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="D46">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2473,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>529</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2481,13 +2520,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2037037037037037</v>
+        <v>0.2056962025316456</v>
       </c>
       <c r="C47">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D47">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2499,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>86</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2507,13 +2546,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1992753623188406</v>
+        <v>0.1973293768545994</v>
       </c>
       <c r="C48">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="D48">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2525,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>221</v>
+        <v>541</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2533,13 +2572,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1962025316455696</v>
+        <v>0.1962616822429906</v>
       </c>
       <c r="C49">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D49">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2551,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>254</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2559,13 +2598,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1868131868131868</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="C50">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D50">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2577,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>74</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2585,13 +2624,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1867088607594937</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="C51">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D51">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2603,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>257</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2611,25 +2650,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1699779249448124</v>
+        <v>0.1771428571428571</v>
       </c>
       <c r="C52">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="D52">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="E52">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>376</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2637,25 +2676,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1656050955414013</v>
+        <v>0.17439293598234</v>
       </c>
       <c r="C53">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="D53">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>131</v>
+        <v>374</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2663,13 +2702,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1637931034482759</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="C54">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="D54">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2681,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>291</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2689,13 +2728,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.16</v>
+        <v>0.1494252873563219</v>
       </c>
       <c r="C55">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D55">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2707,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>147</v>
+        <v>296</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2715,13 +2754,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.15625</v>
+        <v>0.1461538461538462</v>
       </c>
       <c r="C56">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D56">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2733,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2741,13 +2780,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1357142857142857</v>
+        <v>0.140625</v>
       </c>
       <c r="C57">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D57">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2759,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2767,13 +2806,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1355140186915888</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="C58">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D58">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2785,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>185</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2793,13 +2832,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1256544502617801</v>
+        <v>0.1302083333333333</v>
       </c>
       <c r="C59">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D59">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2819,7 +2858,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1198501872659176</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="C60">
         <v>32</v>
@@ -2837,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>235</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2845,13 +2884,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1197916666666667</v>
+        <v>0.1214285714285714</v>
       </c>
       <c r="C61">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D61">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2863,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>169</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2871,25 +2910,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1170212765957447</v>
+        <v>0.1092896174863388</v>
       </c>
       <c r="C62">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D62">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E62">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2897,25 +2936,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1095890410958904</v>
+        <v>0.106508875739645</v>
       </c>
       <c r="C63">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D63">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>325</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2923,25 +2962,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.106508875739645</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="C64">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D64">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E64">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2949,25 +2988,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1038251366120219</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="C65">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D65">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>164</v>
+        <v>329</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2975,25 +3014,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.09716599190283401</v>
+        <v>0.09424083769633508</v>
       </c>
       <c r="C66">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D66">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E66">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>223</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3001,25 +3040,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.08430913348946135</v>
+        <v>0.09060955518945635</v>
       </c>
       <c r="C67">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D67">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E67">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="F67">
-        <v>0.84</v>
+        <v>0.98</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>391</v>
+        <v>552</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3027,13 +3066,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.07887323943661972</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C68">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D68">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3045,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>327</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3053,25 +3092,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07084019769357495</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="C69">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D69">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E69">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="F69">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>564</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3079,25 +3118,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.06919642857142858</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="C70">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D70">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E70">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>417</v>
+        <v>325</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3105,25 +3144,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.0683453237410072</v>
+        <v>0.0779510022271715</v>
       </c>
       <c r="C71">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D71">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E71">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>259</v>
+        <v>414</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3131,25 +3170,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.06645569620253164</v>
+        <v>0.0749063670411985</v>
       </c>
       <c r="C72">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D72">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E72">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>295</v>
+        <v>247</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3157,25 +3196,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.04822335025380711</v>
+        <v>0.07192575406032482</v>
       </c>
       <c r="C73">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D73">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E73">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="F73">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>750</v>
+        <v>400</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3183,25 +3222,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.0468384074941452</v>
+        <v>0.06012658227848101</v>
       </c>
       <c r="C74">
+        <v>19</v>
+      </c>
+      <c r="D74">
         <v>20</v>
       </c>
-      <c r="D74">
-        <v>22</v>
-      </c>
       <c r="E74">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="F74">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>407</v>
+        <v>297</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3209,25 +3248,129 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.03669724770642202</v>
+        <v>0.05734767025089606</v>
       </c>
       <c r="C75">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D75">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E75">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="F75">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>630</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76">
+        <v>0.05045871559633028</v>
+      </c>
+      <c r="C76">
+        <v>33</v>
+      </c>
+      <c r="D76">
+        <v>34</v>
+      </c>
+      <c r="E76">
+        <v>0.03</v>
+      </c>
+      <c r="F76">
+        <v>0.97</v>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77">
+        <v>0.04949238578680203</v>
+      </c>
+      <c r="C77">
+        <v>39</v>
+      </c>
+      <c r="D77">
+        <v>45</v>
+      </c>
+      <c r="E77">
+        <v>0.13</v>
+      </c>
+      <c r="F77">
+        <v>0.87</v>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>0.04215456674473068</v>
+      </c>
+      <c r="C78">
+        <v>18</v>
+      </c>
+      <c r="D78">
+        <v>20</v>
+      </c>
+      <c r="E78">
+        <v>0.1</v>
+      </c>
+      <c r="F78">
+        <v>0.9</v>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79">
+        <v>0.03837471783295711</v>
+      </c>
+      <c r="C79">
+        <v>17</v>
+      </c>
+      <c r="D79">
+        <v>21</v>
+      </c>
+      <c r="E79">
+        <v>0.19</v>
+      </c>
+      <c r="F79">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>426</v>
       </c>
     </row>
   </sheetData>
